--- a/examples/programs/quota_share_with_exclusion.xlsx
+++ b/examples/programs/quota_share_with_exclusion.xlsx
@@ -742,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,26 +770,25 @@
     <col width="19" customWidth="1" min="18" max="18"/>
     <col width="22" customWidth="1" min="19" max="19"/>
     <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="22" customWidth="1" min="21" max="21"/>
-    <col width="15" customWidth="1" min="22" max="22"/>
-    <col width="13" customWidth="1" min="23" max="23"/>
-    <col width="15" customWidth="1" min="24" max="24"/>
-    <col width="10" customWidth="1" min="25" max="25"/>
-    <col width="27" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
-    <col width="18" customWidth="1" min="28" max="28"/>
-    <col width="21" customWidth="1" min="29" max="29"/>
-    <col width="17" customWidth="1" min="30" max="30"/>
-    <col width="28" customWidth="1" min="31" max="31"/>
-    <col width="15" customWidth="1" min="32" max="32"/>
-    <col width="16" customWidth="1" min="33" max="33"/>
-    <col width="18" customWidth="1" min="34" max="34"/>
-    <col width="23" customWidth="1" min="35" max="35"/>
-    <col width="17" customWidth="1" min="36" max="36"/>
-    <col width="13" customWidth="1" min="37" max="37"/>
-    <col width="22" customWidth="1" min="38" max="38"/>
-    <col width="15" customWidth="1" min="39" max="39"/>
-    <col width="20" customWidth="1" min="40" max="40"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="13" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="10" customWidth="1" min="24" max="24"/>
+    <col width="27" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="18" customWidth="1" min="27" max="27"/>
+    <col width="21" customWidth="1" min="28" max="28"/>
+    <col width="17" customWidth="1" min="29" max="29"/>
+    <col width="28" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="16" customWidth="1" min="32" max="32"/>
+    <col width="18" customWidth="1" min="33" max="33"/>
+    <col width="23" customWidth="1" min="34" max="34"/>
+    <col width="17" customWidth="1" min="35" max="35"/>
+    <col width="13" customWidth="1" min="36" max="36"/>
+    <col width="22" customWidth="1" min="37" max="37"/>
+    <col width="15" customWidth="1" min="38" max="38"/>
+    <col width="20" customWidth="1" min="39" max="39"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -895,100 +894,95 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_OCCURRENCE_100</t>
+          <t>LIMIT_AGG_100</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_AGG_100</t>
+          <t>CESSION_PCT</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>CESSION_PCT</t>
+          <t>RETENTION_PCT</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>RETENTION_PCT</t>
+          <t>SUPI_100</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>SUPI_100</t>
+          <t>BUSCL_PREMIUM_CURRENCY_CD</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_PREMIUM_CURRENCY_CD</t>
+          <t>BUSCL_PREMIUM_GROSS_NET_CD</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_PREMIUM_GROSS_NET_CD</t>
+          <t>PREMIUM_RATE_PCT</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_RATE_PCT</t>
+          <t>PREMIUM_DEPOSIT_100</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_DEPOSIT_100</t>
+          <t>PREMIUM_MIN_100</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_MIN_100</t>
+          <t>BUSCL_LIABILITY_1_LINE_100</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_LIABILITY_1_LINE_100</t>
+          <t>MAX_COVER_PCT</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>MAX_COVER_PCT</t>
+          <t>MIN_EXCESS_PCT</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>MIN_EXCESS_PCT</t>
+          <t>SIGNED_SHARE_PCT</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>SIGNED_SHARE_PCT</t>
+          <t>AVERAGE_LINE_SLAV_CED</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>AVERAGE_LINE_SLAV_CED</t>
+          <t>PML_DEFAULT_PCT</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>PML_DEFAULT_PCT</t>
+          <t>LIMIT_EVENT</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_EVENT</t>
+          <t>NO_OF_REINSTATEMENTS</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>NO_OF_REINSTATEMENTS</t>
+          <t>INCLUDES_HULL</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>INCLUDES_HULL</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>INCLUDES_LIABILITY</t>
         </is>
@@ -1014,7 +1008,7 @@
           <t>Iran</t>
         </is>
       </c>
-      <c r="AH2" t="n">
+      <c r="AG2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1038,7 +1032,7 @@
           <t>Russia</t>
         </is>
       </c>
-      <c r="AH3" t="n">
+      <c r="AG3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1052,10 +1046,10 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="W4" t="n">
+      <c r="V4" t="n">
         <v>0.25</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AG4" t="n">
         <v>1</v>
       </c>
     </row>
